--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1975.559266873206</v>
+        <v>2156.774649723788</v>
       </c>
       <c r="AB2" t="n">
-        <v>2703.047344459647</v>
+        <v>2950.994225934269</v>
       </c>
       <c r="AC2" t="n">
-        <v>2445.072299655193</v>
+        <v>2669.355478757511</v>
       </c>
       <c r="AD2" t="n">
-        <v>1975559.266873206</v>
+        <v>2156774.649723788</v>
       </c>
       <c r="AE2" t="n">
-        <v>2703047.344459647</v>
+        <v>2950994.225934269</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.433453472880835e-07</v>
+        <v>1.071654534660279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2445072.299655193</v>
+        <v>2669355.478757511</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1190.830154282446</v>
+        <v>1320.160079014106</v>
       </c>
       <c r="AB3" t="n">
-        <v>1629.346352807865</v>
+        <v>1806.301261459318</v>
       </c>
       <c r="AC3" t="n">
-        <v>1473.84382369785</v>
+        <v>1633.910404225383</v>
       </c>
       <c r="AD3" t="n">
-        <v>1190830.154282446</v>
+        <v>1320160.079014106</v>
       </c>
       <c r="AE3" t="n">
-        <v>1629346.352807865</v>
+        <v>1806301.261459318</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045273593830346e-06</v>
+        <v>1.506933743347713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.07407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1473843.82369785</v>
+        <v>1633910.404225383</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1014.820882630714</v>
+        <v>1126.969412625979</v>
       </c>
       <c r="AB4" t="n">
-        <v>1388.522702352925</v>
+        <v>1541.969268736402</v>
       </c>
       <c r="AC4" t="n">
-        <v>1256.004044444213</v>
+        <v>1394.80588589566</v>
       </c>
       <c r="AD4" t="n">
-        <v>1014820.882630714</v>
+        <v>1126969.412625979</v>
       </c>
       <c r="AE4" t="n">
-        <v>1388522.702352925</v>
+        <v>1541969.268736402</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.163860127260931e-06</v>
+        <v>1.677895728600144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1256004.044444213</v>
+        <v>1394805.88589566</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>929.6397483359801</v>
+        <v>1041.788188822694</v>
       </c>
       <c r="AB5" t="n">
-        <v>1271.974116484446</v>
+        <v>1425.420560398375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1150.578692034055</v>
+        <v>1289.380422704275</v>
       </c>
       <c r="AD5" t="n">
-        <v>929639.7483359801</v>
+        <v>1041788.188822694</v>
       </c>
       <c r="AE5" t="n">
-        <v>1271974.116484446</v>
+        <v>1425420.560398375</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226672126367654e-06</v>
+        <v>1.768449552498243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.77430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1150578.692034055</v>
+        <v>1289380.422704275</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>878.6027775269912</v>
+        <v>990.6658771591335</v>
       </c>
       <c r="AB6" t="n">
-        <v>1202.143081431345</v>
+        <v>1355.472758223076</v>
       </c>
       <c r="AC6" t="n">
-        <v>1087.412232957948</v>
+        <v>1226.10834059623</v>
       </c>
       <c r="AD6" t="n">
-        <v>878602.7775269912</v>
+        <v>990665.8771591336</v>
       </c>
       <c r="AE6" t="n">
-        <v>1202143.081431345</v>
+        <v>1355472.758223076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>1.82614354397847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.99305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1087412.232957948</v>
+        <v>1226108.34059623</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>846.8173197802987</v>
+        <v>950.2471411255084</v>
       </c>
       <c r="AB7" t="n">
-        <v>1158.652815866892</v>
+        <v>1300.170060433085</v>
       </c>
       <c r="AC7" t="n">
-        <v>1048.072617299996</v>
+        <v>1176.083654665492</v>
       </c>
       <c r="AD7" t="n">
-        <v>846817.3197802987</v>
+        <v>950247.1411255084</v>
       </c>
       <c r="AE7" t="n">
-        <v>1158652.815866892</v>
+        <v>1300170.060433085</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.295996406318216e-06</v>
+        <v>1.868391899944305e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.44907407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1048072.617299996</v>
+        <v>1176083.654665492</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>829.6494893605709</v>
+        <v>933.0793107057806</v>
       </c>
       <c r="AB8" t="n">
-        <v>1135.163032895396</v>
+        <v>1276.68027746159</v>
       </c>
       <c r="AC8" t="n">
-        <v>1026.824666247182</v>
+        <v>1154.835703612678</v>
       </c>
       <c r="AD8" t="n">
-        <v>829649.4893605709</v>
+        <v>933079.3107057806</v>
       </c>
       <c r="AE8" t="n">
-        <v>1135163.032895396</v>
+        <v>1276680.27746159</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309966299096133e-06</v>
+        <v>1.888531797232679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.20023148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>1026824.666247182</v>
+        <v>1154835.703612678</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>799.7101612451532</v>
+        <v>903.2252339363836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1094.198723337945</v>
+        <v>1235.832612556787</v>
       </c>
       <c r="AC9" t="n">
-        <v>989.7699329001242</v>
+        <v>1117.886482516333</v>
       </c>
       <c r="AD9" t="n">
-        <v>799710.1612451533</v>
+        <v>903225.2339363836</v>
       </c>
       <c r="AE9" t="n">
-        <v>1094198.723337945</v>
+        <v>1235832.612556787</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327034777114264e-06</v>
+        <v>1.913138814596292e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.90509259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>989769.9329001242</v>
+        <v>1117886.482516333</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>781.8814459630645</v>
+        <v>885.3965186542946</v>
       </c>
       <c r="AB10" t="n">
-        <v>1069.804688541585</v>
+        <v>1211.438577760427</v>
       </c>
       <c r="AC10" t="n">
-        <v>967.7040305474857</v>
+        <v>1095.820580163694</v>
       </c>
       <c r="AD10" t="n">
-        <v>781881.4459630644</v>
+        <v>885396.5186542945</v>
       </c>
       <c r="AE10" t="n">
-        <v>1069804.688541585</v>
+        <v>1211438.577760427</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.337958603045868e-06</v>
+        <v>1.928887305709005e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.71412037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>967704.0305474857</v>
+        <v>1095820.580163694</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>763.5669812267489</v>
+        <v>867.0820539179794</v>
       </c>
       <c r="AB11" t="n">
-        <v>1044.746029912198</v>
+        <v>1186.37991913104</v>
       </c>
       <c r="AC11" t="n">
-        <v>945.0369351276395</v>
+        <v>1073.153484743847</v>
       </c>
       <c r="AD11" t="n">
-        <v>763566.9812267489</v>
+        <v>867082.0539179794</v>
       </c>
       <c r="AE11" t="n">
-        <v>1044746.029912198</v>
+        <v>1186379.91913104</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>1.94705864160829e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.50578703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>945036.9351276394</v>
+        <v>1073153.484743848</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>746.4978599737835</v>
+        <v>841.3796543780812</v>
       </c>
       <c r="AB12" t="n">
-        <v>1021.391305177407</v>
+        <v>1151.212762170712</v>
       </c>
       <c r="AC12" t="n">
-        <v>923.9111525429751</v>
+        <v>1041.342631886397</v>
       </c>
       <c r="AD12" t="n">
-        <v>746497.8599737835</v>
+        <v>841379.6543780812</v>
       </c>
       <c r="AE12" t="n">
-        <v>1021391.305177407</v>
+        <v>1151212.762170712</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>1.962882846620583e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.32060185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>923911.152542975</v>
+        <v>1041342.631886397</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>735.0059338697807</v>
+        <v>829.8877282740785</v>
       </c>
       <c r="AB13" t="n">
-        <v>1005.667544893912</v>
+        <v>1135.489001887217</v>
       </c>
       <c r="AC13" t="n">
-        <v>909.6880458725009</v>
+        <v>1027.119525215923</v>
       </c>
       <c r="AD13" t="n">
-        <v>735005.9338697807</v>
+        <v>829887.7282740786</v>
       </c>
       <c r="AE13" t="n">
-        <v>1005667.544893913</v>
+        <v>1135489.001887216</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.363535060876114e-06</v>
+        <v>1.965759974804636e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>909688.0458725009</v>
+        <v>1027119.525215923</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>727.4195416562993</v>
+        <v>822.3013360605971</v>
       </c>
       <c r="AB14" t="n">
-        <v>995.2875083794238</v>
+        <v>1125.108965372728</v>
       </c>
       <c r="AC14" t="n">
-        <v>900.2986654744824</v>
+        <v>1017.730144817905</v>
       </c>
       <c r="AD14" t="n">
-        <v>727419.5416562993</v>
+        <v>822301.3360605971</v>
       </c>
       <c r="AE14" t="n">
-        <v>995287.5083794238</v>
+        <v>1125108.965372728</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.365478241450485e-06</v>
+        <v>1.968561389089109e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.25694444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>900298.6654744823</v>
+        <v>1017730.144817905</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>729.4441216467428</v>
+        <v>824.3259160510407</v>
       </c>
       <c r="AB15" t="n">
-        <v>998.0576280405141</v>
+        <v>1127.879085033818</v>
       </c>
       <c r="AC15" t="n">
-        <v>902.8044088030055</v>
+        <v>1020.235888146428</v>
       </c>
       <c r="AD15" t="n">
-        <v>729444.1216467428</v>
+        <v>824325.9160510408</v>
       </c>
       <c r="AE15" t="n">
-        <v>998057.6280405142</v>
+        <v>1127879.085033818</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.365583278238289e-06</v>
+        <v>1.96871281688827e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.25694444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>902804.4088030055</v>
+        <v>1020235.888146428</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1490.178728725285</v>
+        <v>1649.939094561199</v>
       </c>
       <c r="AB2" t="n">
-        <v>2038.928278687605</v>
+        <v>2257.519459354211</v>
       </c>
       <c r="AC2" t="n">
-        <v>1844.335825423472</v>
+        <v>2042.064970601906</v>
       </c>
       <c r="AD2" t="n">
-        <v>1490178.728725285</v>
+        <v>1649939.094561199</v>
       </c>
       <c r="AE2" t="n">
-        <v>2038928.278687605</v>
+        <v>2257519.459354212</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798669604787306e-07</v>
+        <v>1.288092130467149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.7349537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1844335.825423472</v>
+        <v>2042064.970601906</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>985.2483237982311</v>
+        <v>1102.921661367681</v>
       </c>
       <c r="AB3" t="n">
-        <v>1348.060222709104</v>
+        <v>1509.06607455289</v>
       </c>
       <c r="AC3" t="n">
-        <v>1219.403247068152</v>
+        <v>1365.042926385099</v>
       </c>
       <c r="AD3" t="n">
-        <v>985248.3237982311</v>
+        <v>1102921.661367681</v>
       </c>
       <c r="AE3" t="n">
-        <v>1348060.222709104</v>
+        <v>1509066.07455289</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158523190197496e-06</v>
+        <v>1.696034368019851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.14120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1219403.247068152</v>
+        <v>1365042.926385099</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>855.3981494144433</v>
+        <v>964.7393147749111</v>
       </c>
       <c r="AB4" t="n">
-        <v>1170.393485531815</v>
+        <v>1319.998891769776</v>
       </c>
       <c r="AC4" t="n">
-        <v>1058.692773930232</v>
+        <v>1194.020050169348</v>
       </c>
       <c r="AD4" t="n">
-        <v>855398.1494144433</v>
+        <v>964739.3147749112</v>
       </c>
       <c r="AE4" t="n">
-        <v>1170393.485531815</v>
+        <v>1319998.891769776</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261966641432538e-06</v>
+        <v>1.847471689193636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.91319444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1058692.773930232</v>
+        <v>1194020.050169348</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>792.7270081893844</v>
+        <v>901.9828326952804</v>
       </c>
       <c r="AB5" t="n">
-        <v>1084.644065252072</v>
+        <v>1234.132704367836</v>
       </c>
       <c r="AC5" t="n">
-        <v>981.1271579719203</v>
+        <v>1116.348811179098</v>
       </c>
       <c r="AD5" t="n">
-        <v>792727.0081893844</v>
+        <v>901982.8326952804</v>
       </c>
       <c r="AE5" t="n">
-        <v>1084644.065252072</v>
+        <v>1234132.704367836</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319555957771374e-06</v>
+        <v>1.931780281863915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.82523148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>981127.1579719202</v>
+        <v>1116348.811179098</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>757.725443346848</v>
+        <v>858.5639338062922</v>
       </c>
       <c r="AB6" t="n">
-        <v>1036.753380074454</v>
+        <v>1174.725051401293</v>
       </c>
       <c r="AC6" t="n">
-        <v>937.8070925726554</v>
+        <v>1062.610941232517</v>
       </c>
       <c r="AD6" t="n">
-        <v>757725.443346848</v>
+        <v>858563.9338062922</v>
       </c>
       <c r="AE6" t="n">
-        <v>1036753.380074454</v>
+        <v>1174725.051401293</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.354652843011835e-06</v>
+        <v>1.983160801547878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.21180555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>937807.0925726554</v>
+        <v>1062610.941232517</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>725.5056671027177</v>
+        <v>826.4294089081824</v>
       </c>
       <c r="AB7" t="n">
-        <v>992.6688607810272</v>
+        <v>1130.757176760515</v>
       </c>
       <c r="AC7" t="n">
-        <v>897.9299379275817</v>
+        <v>1022.839298838156</v>
       </c>
       <c r="AD7" t="n">
-        <v>725505.6671027177</v>
+        <v>826429.4089081824</v>
       </c>
       <c r="AE7" t="n">
-        <v>992668.8607810272</v>
+        <v>1130757.176760515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.375080751449007e-06</v>
+        <v>2.013066491023373e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>897929.9379275817</v>
+        <v>1022839.298838156</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>701.4069310829227</v>
+        <v>802.3306728883874</v>
       </c>
       <c r="AB8" t="n">
-        <v>959.6959069975449</v>
+        <v>1097.784222977032</v>
       </c>
       <c r="AC8" t="n">
-        <v>868.1038765753635</v>
+        <v>993.0132374859378</v>
       </c>
       <c r="AD8" t="n">
-        <v>701406.9310829227</v>
+        <v>802330.6728883875</v>
       </c>
       <c r="AE8" t="n">
-        <v>959695.9069975448</v>
+        <v>1097784.222977032</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39311815996268e-06</v>
+        <v>2.03947257853897e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.56944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>868103.8765753636</v>
+        <v>993013.2374859378</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>681.1577105138978</v>
+        <v>773.6641182729106</v>
       </c>
       <c r="AB9" t="n">
-        <v>931.9900300824418</v>
+        <v>1058.561378273004</v>
       </c>
       <c r="AC9" t="n">
-        <v>843.0422096675954</v>
+        <v>957.5337660308531</v>
       </c>
       <c r="AD9" t="n">
-        <v>681157.7105138978</v>
+        <v>773664.1182729106</v>
       </c>
       <c r="AE9" t="n">
-        <v>931990.0300824417</v>
+        <v>1058561.378273004</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.406917864066515e-06</v>
+        <v>2.059674826216566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>843042.2096675955</v>
+        <v>957533.7660308531</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>666.3226973774368</v>
+        <v>758.8291051364497</v>
       </c>
       <c r="AB10" t="n">
-        <v>911.6921106345467</v>
+        <v>1038.263458825109</v>
       </c>
       <c r="AC10" t="n">
-        <v>824.6814951634985</v>
+        <v>939.1730515267565</v>
       </c>
       <c r="AD10" t="n">
-        <v>666322.6973774368</v>
+        <v>758829.1051364497</v>
       </c>
       <c r="AE10" t="n">
-        <v>911692.1106345467</v>
+        <v>1038263.458825109</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41398070474958e-06</v>
+        <v>2.070014559279902e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>824681.4951634986</v>
+        <v>939173.0515267565</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>668.5077019938294</v>
+        <v>761.0141097528423</v>
       </c>
       <c r="AB11" t="n">
-        <v>914.6817303462955</v>
+        <v>1041.253078536858</v>
       </c>
       <c r="AC11" t="n">
-        <v>827.3857897659157</v>
+        <v>941.8773461291737</v>
       </c>
       <c r="AD11" t="n">
-        <v>668507.7019938295</v>
+        <v>761014.1097528422</v>
       </c>
       <c r="AE11" t="n">
-        <v>914681.7303462955</v>
+        <v>1041253.078536858</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41186185254466e-06</v>
+        <v>2.066912639360901e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.26851851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>827385.7897659157</v>
+        <v>941877.3461291736</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.6183874464404</v>
+        <v>820.2750888712269</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.6676720917701</v>
+        <v>1122.336564576515</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.7421960184914</v>
+        <v>1015.222338062593</v>
       </c>
       <c r="AD2" t="n">
-        <v>711618.3874464404</v>
+        <v>820275.0888712269</v>
       </c>
       <c r="AE2" t="n">
-        <v>973667.6720917701</v>
+        <v>1122336.564576515</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310384651470074e-06</v>
+        <v>2.027326800421605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>880742.1960184914</v>
+        <v>1015222.338062593</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.6107549895887</v>
+        <v>651.6476275998748</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.3158791439682</v>
+        <v>891.6130327465002</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.3706443625409</v>
+        <v>806.5187362879244</v>
       </c>
       <c r="AD3" t="n">
-        <v>558610.7549895887</v>
+        <v>651647.6275998747</v>
       </c>
       <c r="AE3" t="n">
-        <v>764315.8791439682</v>
+        <v>891613.0327465001</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503229137999165e-06</v>
+        <v>2.325681024439238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.33912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>691370.6443625409</v>
+        <v>806518.7362879245</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.1753454052043</v>
+        <v>610.297469361511</v>
       </c>
       <c r="AB4" t="n">
-        <v>707.6221237493565</v>
+        <v>835.0359220045378</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.0876614126057</v>
+        <v>755.3412655887013</v>
       </c>
       <c r="AD4" t="n">
-        <v>517175.3454052043</v>
+        <v>610297.4693615111</v>
       </c>
       <c r="AE4" t="n">
-        <v>707622.1237493566</v>
+        <v>835035.9220045379</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546635819028661e-06</v>
+        <v>2.392836517805043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>640087.6614126057</v>
+        <v>755341.2655887012</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.0933769697762</v>
+        <v>613.2155009260828</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.6147032704706</v>
+        <v>839.0285015256519</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.699194747845</v>
+        <v>758.9527989239407</v>
       </c>
       <c r="AD5" t="n">
-        <v>520093.3769697761</v>
+        <v>613215.5009260827</v>
       </c>
       <c r="AE5" t="n">
-        <v>711614.7032704706</v>
+        <v>839028.5015256519</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546514571316289e-06</v>
+        <v>2.392648932628043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>643699.1947478451</v>
+        <v>758952.7989239407</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.8178114597732</v>
+        <v>1062.969201935349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.004923825533</v>
+        <v>1454.40135697946</v>
       </c>
       <c r="AC2" t="n">
-        <v>1166.888664428905</v>
+        <v>1315.595332734465</v>
       </c>
       <c r="AD2" t="n">
-        <v>942817.8114597732</v>
+        <v>1062969.201935349</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290004.923825533</v>
+        <v>1454401.35697946</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.138885507717343e-06</v>
+        <v>1.721190798556298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.4675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1166888.664428906</v>
+        <v>1315595.332734465</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>701.7296709007873</v>
+        <v>805.9233816988951</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.1374938546228</v>
+        <v>1102.699925670696</v>
       </c>
       <c r="AC3" t="n">
-        <v>868.5033190025731</v>
+        <v>997.4597924137495</v>
       </c>
       <c r="AD3" t="n">
-        <v>701729.6709007872</v>
+        <v>805923.3816988951</v>
       </c>
       <c r="AE3" t="n">
-        <v>960137.4938546228</v>
+        <v>1102699.925670696</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.36594344745933e-06</v>
+        <v>2.064342093374646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.57175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>868503.3190025731</v>
+        <v>997459.7924137495</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>629.5095609538739</v>
+        <v>725.5965548942168</v>
       </c>
       <c r="AB4" t="n">
-        <v>861.3227532988708</v>
+        <v>992.7932174670426</v>
       </c>
       <c r="AC4" t="n">
-        <v>779.1193185981026</v>
+        <v>898.0424261860193</v>
       </c>
       <c r="AD4" t="n">
-        <v>629509.5609538739</v>
+        <v>725596.5548942167</v>
       </c>
       <c r="AE4" t="n">
-        <v>861322.7532988708</v>
+        <v>992793.2174670426</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448531060790771e-06</v>
+        <v>2.18915625527026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.17129629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>779119.3185981027</v>
+        <v>898042.4261860193</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.8622746838222</v>
+        <v>682.0345199701856</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.6026106418168</v>
+        <v>933.1897194626378</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.098782538491</v>
+        <v>844.1274023771202</v>
       </c>
       <c r="AD5" t="n">
-        <v>585862.2746838222</v>
+        <v>682034.5199701856</v>
       </c>
       <c r="AE5" t="n">
-        <v>801602.6106418167</v>
+        <v>933189.7194626378</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.484025175509058e-06</v>
+        <v>2.242798296759105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>725098.7825384911</v>
+        <v>844127.4023771202</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>570.6154847302814</v>
+        <v>658.7663540134513</v>
       </c>
       <c r="AB6" t="n">
-        <v>780.741279986482</v>
+        <v>901.3531882815998</v>
       </c>
       <c r="AC6" t="n">
-        <v>706.2284280018401</v>
+        <v>815.3293050491484</v>
       </c>
       <c r="AD6" t="n">
-        <v>570615.4847302814</v>
+        <v>658766.3540134513</v>
       </c>
       <c r="AE6" t="n">
-        <v>780741.279986482</v>
+        <v>901353.1882815999</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498988380733435e-06</v>
+        <v>2.265412098563226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.39004629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>706228.4280018401</v>
+        <v>815329.3050491484</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.9739911454303</v>
+        <v>657.6798202996753</v>
       </c>
       <c r="AB2" t="n">
-        <v>775.75882781233</v>
+        <v>899.8665449199272</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.7214940702736</v>
+        <v>813.9845448433966</v>
       </c>
       <c r="AD2" t="n">
-        <v>566973.9911454304</v>
+        <v>657679.8202996752</v>
       </c>
       <c r="AE2" t="n">
-        <v>775758.82781233</v>
+        <v>899866.5449199271</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.456585479635716e-06</v>
+        <v>2.302115857471565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>701721.4940702736</v>
+        <v>813984.5448433966</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>482.7599254637395</v>
+        <v>573.2950729088413</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.533427884273</v>
+        <v>784.4076107474747</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.4930445914857</v>
+        <v>709.5448493007312</v>
       </c>
       <c r="AD3" t="n">
-        <v>482759.9254637395</v>
+        <v>573295.0729088413</v>
       </c>
       <c r="AE3" t="n">
-        <v>660533.427884273</v>
+        <v>784407.6107474747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.576844763205536e-06</v>
+        <v>2.492184210880862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.10763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>597493.0445914858</v>
+        <v>709544.8493007312</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1598.859356625498</v>
+        <v>1759.783486167292</v>
       </c>
       <c r="AB2" t="n">
-        <v>2187.62990843159</v>
+        <v>2407.813401942213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1978.845580328739</v>
+        <v>2178.015070248182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1598859.356625498</v>
+        <v>1759783.486167292</v>
       </c>
       <c r="AE2" t="n">
-        <v>2187629.90843159</v>
+        <v>2407813.401942213</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.435348638923934e-07</v>
+        <v>1.229777912285003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.93865740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1978845.580328739</v>
+        <v>2178015.070248182</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.77493247791</v>
+        <v>1148.413489612074</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.983493079976</v>
+        <v>1571.310000914686</v>
       </c>
       <c r="AC3" t="n">
-        <v>1274.512086021175</v>
+        <v>1421.346379774825</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029774.93247791</v>
+        <v>1148413.489612074</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408983.493079976</v>
+        <v>1571310.000914686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129594781672459e-06</v>
+        <v>1.646820744222848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.58101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1274512.086021175</v>
+        <v>1421346.379774825</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>897.0434330092769</v>
+        <v>1007.037215290409</v>
       </c>
       <c r="AB4" t="n">
-        <v>1227.374399806511</v>
+        <v>1377.872745306752</v>
       </c>
       <c r="AC4" t="n">
-        <v>1110.235509719766</v>
+        <v>1246.370504351218</v>
       </c>
       <c r="AD4" t="n">
-        <v>897043.4330092769</v>
+        <v>1007037.215290409</v>
       </c>
       <c r="AE4" t="n">
-        <v>1227374.399806511</v>
+        <v>1377872.745306752</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238193097908558e-06</v>
+        <v>1.805144740462003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.16203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1110235.509719766</v>
+        <v>1246370.504351218</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>832.8555546422326</v>
+        <v>934.4604951254961</v>
       </c>
       <c r="AB5" t="n">
-        <v>1139.549712855384</v>
+        <v>1278.5700749182</v>
       </c>
       <c r="AC5" t="n">
-        <v>1030.792687628532</v>
+        <v>1156.545141452377</v>
       </c>
       <c r="AD5" t="n">
-        <v>832855.5546422326</v>
+        <v>934460.4951254961</v>
       </c>
       <c r="AE5" t="n">
-        <v>1139549.712855384</v>
+        <v>1278570.0749182</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295318935056054e-06</v>
+        <v>1.888427715181758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.05671296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1030792.687628532</v>
+        <v>1156545.141452377</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>788.8909403085947</v>
+        <v>890.4105399372866</v>
       </c>
       <c r="AB6" t="n">
-        <v>1079.395387942205</v>
+        <v>1218.298982882823</v>
       </c>
       <c r="AC6" t="n">
-        <v>976.3794070579418</v>
+        <v>1102.026237849848</v>
       </c>
       <c r="AD6" t="n">
-        <v>788890.9403085947</v>
+        <v>890410.5399372865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1079395.387942205</v>
+        <v>1218298.982882823</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.330908170074429e-06</v>
+        <v>1.940312772947787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.41435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>976379.4070579418</v>
+        <v>1102026.237849848</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>766.632973710486</v>
+        <v>859.8490723958807</v>
       </c>
       <c r="AB7" t="n">
-        <v>1048.941056090489</v>
+        <v>1176.483434715881</v>
       </c>
       <c r="AC7" t="n">
-        <v>948.8315938952304</v>
+        <v>1064.201506911468</v>
       </c>
       <c r="AD7" t="n">
-        <v>766632.973710486</v>
+        <v>859849.0723958807</v>
       </c>
       <c r="AE7" t="n">
-        <v>1048941.056090489</v>
+        <v>1176483.434715881</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>1.968021434659449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.07870370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>948831.5938952304</v>
+        <v>1064201.506911468</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>731.7918734381765</v>
+        <v>833.3967244128889</v>
       </c>
       <c r="AB8" t="n">
-        <v>1001.269925617053</v>
+        <v>1140.290165210321</v>
       </c>
       <c r="AC8" t="n">
-        <v>905.7101292073272</v>
+        <v>1031.462472249946</v>
       </c>
       <c r="AD8" t="n">
-        <v>731791.8734381765</v>
+        <v>833396.724412889</v>
       </c>
       <c r="AE8" t="n">
-        <v>1001269.925617053</v>
+        <v>1140290.165210321</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372312287667666e-06</v>
+        <v>2.000675268291322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.70254629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>905710.1292073273</v>
+        <v>1031462.472249946</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>712.2670650986385</v>
+        <v>813.7013238727586</v>
       </c>
       <c r="AB9" t="n">
-        <v>974.5552214731456</v>
+        <v>1113.342049291567</v>
       </c>
       <c r="AC9" t="n">
-        <v>881.5450389325919</v>
+        <v>1007.086246692559</v>
       </c>
       <c r="AD9" t="n">
-        <v>712267.0650986384</v>
+        <v>813701.3238727587</v>
       </c>
       <c r="AE9" t="n">
-        <v>974555.2214731456</v>
+        <v>1113342.049291567</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385664980987722e-06</v>
+        <v>2.020141976802631e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.48842592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>881545.0389325919</v>
+        <v>1007086.246692559</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>691.1689265846333</v>
+        <v>784.2996844154562</v>
       </c>
       <c r="AB10" t="n">
-        <v>945.6878175741039</v>
+        <v>1073.113429077298</v>
       </c>
       <c r="AC10" t="n">
-        <v>855.4326995460187</v>
+        <v>970.6969895303173</v>
       </c>
       <c r="AD10" t="n">
-        <v>691168.9265846333</v>
+        <v>784299.6844154563</v>
       </c>
       <c r="AE10" t="n">
-        <v>945687.8175741038</v>
+        <v>1073113.429077298</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.397887002695999e-06</v>
+        <v>2.03796029467387e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>855432.6995460187</v>
+        <v>970696.9895303173</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>677.9208153415865</v>
+        <v>771.0515731724095</v>
       </c>
       <c r="AB11" t="n">
-        <v>927.5611673059486</v>
+        <v>1054.986778809143</v>
       </c>
       <c r="AC11" t="n">
-        <v>839.036031338543</v>
+        <v>954.3003213228413</v>
       </c>
       <c r="AD11" t="n">
-        <v>677920.8153415865</v>
+        <v>771051.5731724094</v>
       </c>
       <c r="AE11" t="n">
-        <v>927561.1673059487</v>
+        <v>1054986.778809143</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.405155605914577e-06</v>
+        <v>2.048557091645752e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.17592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>839036.031338543</v>
+        <v>954300.3213228413</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>684.2211140715268</v>
+        <v>777.3518719023499</v>
       </c>
       <c r="AB12" t="n">
-        <v>936.1815139778165</v>
+        <v>1063.607125481011</v>
       </c>
       <c r="AC12" t="n">
-        <v>846.8336642227802</v>
+        <v>962.0979542070786</v>
       </c>
       <c r="AD12" t="n">
-        <v>684221.1140715268</v>
+        <v>777351.8719023499</v>
       </c>
       <c r="AE12" t="n">
-        <v>936181.5139778166</v>
+        <v>1063607.125481011</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400202187424879e-06</v>
+        <v>2.041335570746396e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.25115740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>846833.6642227801</v>
+        <v>962097.9542070786</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.300743652217</v>
+        <v>574.4398360787219</v>
       </c>
       <c r="AB2" t="n">
-        <v>664.0098874227351</v>
+        <v>785.9739262198922</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.6377157108386</v>
+        <v>710.9616778227987</v>
       </c>
       <c r="AD2" t="n">
-        <v>485300.743652217</v>
+        <v>574439.8360787219</v>
       </c>
       <c r="AE2" t="n">
-        <v>664009.8874227351</v>
+        <v>785973.9262198922</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.548376987544944e-06</v>
+        <v>2.480863644205999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.07986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>600637.7157108387</v>
+        <v>710961.6778227987</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.8818783862962</v>
+        <v>550.1062221588218</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.5989186815978</v>
+        <v>752.6796021314042</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.4154429337664</v>
+        <v>680.8449172964387</v>
       </c>
       <c r="AD3" t="n">
-        <v>460881.8783862962</v>
+        <v>550106.2221588218</v>
       </c>
       <c r="AE3" t="n">
-        <v>630598.9186815978</v>
+        <v>752679.6021314042</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585556077091903e-06</v>
+        <v>2.540433278942032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.51851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>570415.4429337664</v>
+        <v>680844.9172964387</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1198.401171136453</v>
+        <v>1338.109856054828</v>
       </c>
       <c r="AB2" t="n">
-        <v>1639.705352077208</v>
+        <v>1830.860938294709</v>
       </c>
       <c r="AC2" t="n">
-        <v>1483.214174615874</v>
+        <v>1656.126139973327</v>
       </c>
       <c r="AD2" t="n">
-        <v>1198401.171136453</v>
+        <v>1338109.856054829</v>
       </c>
       <c r="AE2" t="n">
-        <v>1639705.352077208</v>
+        <v>1830860.938294709</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.985605957177312e-07</v>
+        <v>1.482705907473027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.44212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1483214.174615874</v>
+        <v>1656126.139973327</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.856683131005</v>
+        <v>953.9509809294823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1147.760721604826</v>
+        <v>1305.237817454762</v>
       </c>
       <c r="AC3" t="n">
-        <v>1038.220049227151</v>
+        <v>1180.667752069661</v>
       </c>
       <c r="AD3" t="n">
-        <v>838856.6831310049</v>
+        <v>953950.9809294823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1147760.721604826</v>
+        <v>1305237.817454762</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254036270299026e-06</v>
+        <v>1.862047224907126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1038220.049227151</v>
+        <v>1180667.752069661</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>747.8429476554373</v>
+        <v>846.5562501730917</v>
       </c>
       <c r="AB4" t="n">
-        <v>1023.231713484527</v>
+        <v>1158.295608912733</v>
       </c>
       <c r="AC4" t="n">
-        <v>925.5759148642923</v>
+        <v>1047.749501676199</v>
       </c>
       <c r="AD4" t="n">
-        <v>747842.9476554374</v>
+        <v>846556.2501730917</v>
       </c>
       <c r="AE4" t="n">
-        <v>1023231.713484527</v>
+        <v>1158295.608912733</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348804087359967e-06</v>
+        <v>2.002762573376874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.01620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>925575.9148642923</v>
+        <v>1047749.501676199</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>695.3388455456306</v>
+        <v>793.9668072087134</v>
       </c>
       <c r="AB5" t="n">
-        <v>951.3932846603815</v>
+        <v>1086.34041296639</v>
       </c>
       <c r="AC5" t="n">
-        <v>860.5936448612557</v>
+        <v>982.6616086412229</v>
       </c>
       <c r="AD5" t="n">
-        <v>695338.8455456307</v>
+        <v>793966.8072087134</v>
       </c>
       <c r="AE5" t="n">
-        <v>951393.2846603815</v>
+        <v>1086340.41296639</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398622963428625e-06</v>
+        <v>2.076735792596056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.15972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>860593.6448612557</v>
+        <v>982661.6086412228</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.1560240245205</v>
+        <v>756.869237033624</v>
       </c>
       <c r="AB6" t="n">
-        <v>900.5181078648862</v>
+        <v>1035.581880823544</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.5739235353632</v>
+        <v>936.747399566043</v>
       </c>
       <c r="AD6" t="n">
-        <v>658156.0240245205</v>
+        <v>756869.237033624</v>
       </c>
       <c r="AE6" t="n">
-        <v>900518.1078648863</v>
+        <v>1035581.880823544</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.424763879298358e-06</v>
+        <v>2.115550953691964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.73726851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>814573.9235353632</v>
+        <v>936747.3995660429</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>627.0642072717785</v>
+        <v>717.5442969674598</v>
       </c>
       <c r="AB7" t="n">
-        <v>857.9769125096373</v>
+        <v>981.7757629311056</v>
       </c>
       <c r="AC7" t="n">
-        <v>776.0928001578765</v>
+        <v>888.0764620478978</v>
       </c>
       <c r="AD7" t="n">
-        <v>627064.2072717785</v>
+        <v>717544.2969674598</v>
       </c>
       <c r="AE7" t="n">
-        <v>857976.9125096373</v>
+        <v>981775.7629311057</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449785269863178e-06</v>
+        <v>2.152703795254856e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>776092.8001578765</v>
+        <v>888076.4620478979</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>619.5377599738057</v>
+        <v>710.0178496694872</v>
       </c>
       <c r="AB8" t="n">
-        <v>847.6788952731306</v>
+        <v>971.4777456945991</v>
       </c>
       <c r="AC8" t="n">
-        <v>766.7776112330641</v>
+        <v>878.7612731230855</v>
       </c>
       <c r="AD8" t="n">
-        <v>619537.7599738057</v>
+        <v>710017.8496694872</v>
       </c>
       <c r="AE8" t="n">
-        <v>847678.8952731306</v>
+        <v>971477.7456945991</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454655204939553e-06</v>
+        <v>2.159934885223473e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.26851851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>766777.6112330641</v>
+        <v>878761.2731230855</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>622.0024070254619</v>
+        <v>712.4824967211433</v>
       </c>
       <c r="AB9" t="n">
-        <v>851.0511341017606</v>
+        <v>974.8499845232291</v>
       </c>
       <c r="AC9" t="n">
-        <v>769.8280083208565</v>
+        <v>881.8116702108778</v>
       </c>
       <c r="AD9" t="n">
-        <v>622002.4070254619</v>
+        <v>712482.4967211434</v>
       </c>
       <c r="AE9" t="n">
-        <v>851051.1341017606</v>
+        <v>974849.9845232291</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.454207394817587e-06</v>
+        <v>2.159269957410267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>769828.0083208565</v>
+        <v>881811.6702108778</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1389.270829040655</v>
+        <v>1539.638598375724</v>
       </c>
       <c r="AB2" t="n">
-        <v>1900.861638596749</v>
+        <v>2106.601454358786</v>
       </c>
       <c r="AC2" t="n">
-        <v>1719.44607168514</v>
+        <v>1905.550368188493</v>
       </c>
       <c r="AD2" t="n">
-        <v>1389270.829040655</v>
+        <v>1539638.598375724</v>
       </c>
       <c r="AE2" t="n">
-        <v>1900861.638596749</v>
+        <v>2106601.454358786</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.169085373406813e-07</v>
+        <v>1.348261262793746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.61226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1719446.07168514</v>
+        <v>1905550.368188493</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.8792253947936</v>
+        <v>1047.812970243276</v>
       </c>
       <c r="AB3" t="n">
-        <v>1273.670023678183</v>
+        <v>1433.663932132613</v>
       </c>
       <c r="AC3" t="n">
-        <v>1152.112744225442</v>
+        <v>1296.837058609842</v>
       </c>
       <c r="AD3" t="n">
-        <v>930879.2253947936</v>
+        <v>1047812.970243276</v>
       </c>
       <c r="AE3" t="n">
-        <v>1273670.023678183</v>
+        <v>1433663.932132613</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190862248551155e-06</v>
+        <v>1.751094437076241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.6550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1152112.744225442</v>
+        <v>1296837.058609842</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>818.4438789806849</v>
+        <v>927.0191177075204</v>
       </c>
       <c r="AB4" t="n">
-        <v>1119.831022416996</v>
+        <v>1268.388454044524</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.955921330229</v>
+        <v>1147.33524018489</v>
       </c>
       <c r="AD4" t="n">
-        <v>818443.8789806849</v>
+        <v>927019.1177075204</v>
       </c>
       <c r="AE4" t="n">
-        <v>1119831.022416996</v>
+        <v>1268388.454044524</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.290845755165108e-06</v>
+        <v>1.898114432414978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012955.921330229</v>
+        <v>1147335.24018489</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>761.2319429016418</v>
+        <v>861.5340163614023</v>
       </c>
       <c r="AB5" t="n">
-        <v>1041.551127461166</v>
+        <v>1178.788849383989</v>
       </c>
       <c r="AC5" t="n">
-        <v>942.1469496824601</v>
+        <v>1066.286896039322</v>
       </c>
       <c r="AD5" t="n">
-        <v>761231.9429016418</v>
+        <v>861534.0163614023</v>
       </c>
       <c r="AE5" t="n">
-        <v>1041551.127461166</v>
+        <v>1178788.849383989</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343552365069666e-06</v>
+        <v>1.975616470550208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.62268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>942146.9496824601</v>
+        <v>1066286.896039322</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>715.9069513523767</v>
+        <v>816.1236839575656</v>
       </c>
       <c r="AB6" t="n">
-        <v>979.5354744259588</v>
+        <v>1116.656429226584</v>
       </c>
       <c r="AC6" t="n">
-        <v>886.0499835334175</v>
+        <v>1010.08430685834</v>
       </c>
       <c r="AD6" t="n">
-        <v>715906.9513523767</v>
+        <v>816123.6839575656</v>
       </c>
       <c r="AE6" t="n">
-        <v>979535.4744259588</v>
+        <v>1116656.429226584</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.381779739787123e-06</v>
+        <v>2.031827626200839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>886049.9835334175</v>
+        <v>1010084.30685834</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>693.3484649119794</v>
+        <v>793.5651975171683</v>
       </c>
       <c r="AB7" t="n">
-        <v>948.6699580680239</v>
+        <v>1085.790912868649</v>
       </c>
       <c r="AC7" t="n">
-        <v>858.1302287366594</v>
+        <v>982.164552061582</v>
       </c>
       <c r="AD7" t="n">
-        <v>693348.4649119794</v>
+        <v>793565.1975171682</v>
       </c>
       <c r="AE7" t="n">
-        <v>948669.9580680239</v>
+        <v>1085790.912868649</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399659401419679e-06</v>
+        <v>2.058118640178035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.67361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>858130.2287366594</v>
+        <v>982164.552061582</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>670.8305189352309</v>
+        <v>762.6888349273241</v>
       </c>
       <c r="AB8" t="n">
-        <v>917.8599109609721</v>
+        <v>1043.544511404244</v>
       </c>
       <c r="AC8" t="n">
-        <v>830.2606492833321</v>
+        <v>943.9500878597428</v>
       </c>
       <c r="AD8" t="n">
-        <v>670830.5189352309</v>
+        <v>762688.8349273241</v>
       </c>
       <c r="AE8" t="n">
-        <v>917859.9109609721</v>
+        <v>1043544.511404244</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414906474836398e-06</v>
+        <v>2.080538584612576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>830260.6492833321</v>
+        <v>943950.0878597428</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>651.1745982092742</v>
+        <v>743.0329142013674</v>
       </c>
       <c r="AB9" t="n">
-        <v>890.9658130656967</v>
+        <v>1016.650413508969</v>
       </c>
       <c r="AC9" t="n">
-        <v>805.9332863450784</v>
+        <v>919.6227249214891</v>
       </c>
       <c r="AD9" t="n">
-        <v>651174.5982092742</v>
+        <v>743032.9142013674</v>
       </c>
       <c r="AE9" t="n">
-        <v>890965.8130656967</v>
+        <v>1016650.413508969</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.427027349746811e-06</v>
+        <v>2.098361633965215e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>805933.2863450784</v>
+        <v>919622.724921489</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>651.7219809078899</v>
+        <v>743.5802968999832</v>
       </c>
       <c r="AB10" t="n">
-        <v>891.7147662227632</v>
+        <v>1017.399366666035</v>
       </c>
       <c r="AC10" t="n">
-        <v>806.6107604639967</v>
+        <v>920.3001990404073</v>
       </c>
       <c r="AD10" t="n">
-        <v>651721.9809078899</v>
+        <v>743580.2968999832</v>
       </c>
       <c r="AE10" t="n">
-        <v>891714.7662227631</v>
+        <v>1017399.366666035</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.426972504158981e-06</v>
+        <v>2.098280986683076e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>806610.7604639967</v>
+        <v>920300.1990404073</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1845.79598595419</v>
+        <v>2017.435890120774</v>
       </c>
       <c r="AB2" t="n">
-        <v>2525.499498754327</v>
+        <v>2760.344787853199</v>
       </c>
       <c r="AC2" t="n">
-        <v>2284.469371154023</v>
+        <v>2496.901355468731</v>
       </c>
       <c r="AD2" t="n">
-        <v>1845795.98595419</v>
+        <v>2017435.890120774</v>
       </c>
       <c r="AE2" t="n">
-        <v>2525499.498754327</v>
+        <v>2760344.787853199</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.752274082937668e-07</v>
+        <v>1.121577700732928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.51967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>2284469.371154022</v>
+        <v>2496901.355468731</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1132.873622275191</v>
+        <v>1261.518209545557</v>
       </c>
       <c r="AB3" t="n">
-        <v>1550.0476688538</v>
+        <v>1726.064868555756</v>
       </c>
       <c r="AC3" t="n">
-        <v>1402.11329484396</v>
+        <v>1561.331660048052</v>
       </c>
       <c r="AD3" t="n">
-        <v>1132873.622275191</v>
+        <v>1261518.209545557</v>
       </c>
       <c r="AE3" t="n">
-        <v>1550047.6688538</v>
+        <v>1726064.868555756</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072634372224003e-06</v>
+        <v>1.551857919438034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.55902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1402113.29484396</v>
+        <v>1561331.660048052</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>970.7526243877912</v>
+        <v>1090.729875595257</v>
       </c>
       <c r="AB4" t="n">
-        <v>1328.226567270616</v>
+        <v>1492.384735395431</v>
       </c>
       <c r="AC4" t="n">
-        <v>1201.462487868003</v>
+        <v>1349.953630824421</v>
       </c>
       <c r="AD4" t="n">
-        <v>970752.6243877913</v>
+        <v>1090729.875595257</v>
       </c>
       <c r="AE4" t="n">
-        <v>1328226.567270616</v>
+        <v>1492384.735395431</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186451562051345e-06</v>
+        <v>1.716525500466155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.82175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1201462.487868003</v>
+        <v>1349953.630824421</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>897.5112398168039</v>
+        <v>1008.991836670512</v>
       </c>
       <c r="AB5" t="n">
-        <v>1228.014473718749</v>
+        <v>1380.547144510818</v>
       </c>
       <c r="AC5" t="n">
-        <v>1110.81449587617</v>
+        <v>1248.789662648791</v>
       </c>
       <c r="AD5" t="n">
-        <v>897511.239816804</v>
+        <v>1008991.836670512</v>
       </c>
       <c r="AE5" t="n">
-        <v>1228014.473718749</v>
+        <v>1380547.144510818</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.24807165924159e-06</v>
+        <v>1.805675762939054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1110814.49587617</v>
+        <v>1248789.662648791</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>849.8325234521859</v>
+        <v>961.227779451322</v>
       </c>
       <c r="AB6" t="n">
-        <v>1162.778350552166</v>
+        <v>1315.194254222037</v>
       </c>
       <c r="AC6" t="n">
-        <v>1051.804416745131</v>
+        <v>1189.673960485814</v>
       </c>
       <c r="AD6" t="n">
-        <v>849832.5234521859</v>
+        <v>961227.779451322</v>
       </c>
       <c r="AE6" t="n">
-        <v>1162778.350552166</v>
+        <v>1315194.254222037</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.2863989361881e-06</v>
+        <v>1.861126613480616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.81365740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1051804.416745131</v>
+        <v>1189673.960485814</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>810.9086477488617</v>
+        <v>913.7219980482196</v>
       </c>
       <c r="AB7" t="n">
-        <v>1109.520986614676</v>
+        <v>1250.194748299151</v>
       </c>
       <c r="AC7" t="n">
-        <v>1003.629860874655</v>
+        <v>1130.877916180829</v>
       </c>
       <c r="AD7" t="n">
-        <v>810908.6477488617</v>
+        <v>913721.9980482196</v>
       </c>
       <c r="AE7" t="n">
-        <v>1109520.986614676</v>
+        <v>1250194.748299151</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.322449869338062e-06</v>
+        <v>1.913284112401616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.16550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1003629.860874655</v>
+        <v>1130877.916180829</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>789.1975705108224</v>
+        <v>892.0961721562007</v>
       </c>
       <c r="AB8" t="n">
-        <v>1079.814932912462</v>
+        <v>1220.605339249587</v>
       </c>
       <c r="AC8" t="n">
-        <v>976.7589112450731</v>
+        <v>1104.112478801959</v>
       </c>
       <c r="AD8" t="n">
-        <v>789197.5705108223</v>
+        <v>892096.1721562007</v>
       </c>
       <c r="AE8" t="n">
-        <v>1079814.932912462</v>
+        <v>1220605.339249587</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332084626802517e-06</v>
+        <v>1.927223414609578e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.99768518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>976758.9112450732</v>
+        <v>1104112.478801959</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>770.2528363105547</v>
+        <v>873.1514379559331</v>
       </c>
       <c r="AB9" t="n">
-        <v>1053.89391179697</v>
+        <v>1194.684318134095</v>
       </c>
       <c r="AC9" t="n">
-        <v>953.3117560044617</v>
+        <v>1080.665323561348</v>
       </c>
       <c r="AD9" t="n">
-        <v>770252.8363105546</v>
+        <v>873151.4379559332</v>
       </c>
       <c r="AE9" t="n">
-        <v>1053893.91179697</v>
+        <v>1194684.318134095</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345848566037451e-06</v>
+        <v>1.947136703478095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>953311.7560044617</v>
+        <v>1080665.323561348</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>753.2192679077491</v>
+        <v>856.1178695531278</v>
       </c>
       <c r="AB10" t="n">
-        <v>1030.58783204025</v>
+        <v>1171.378238377374</v>
       </c>
       <c r="AC10" t="n">
-        <v>932.2299757894342</v>
+        <v>1059.58354334632</v>
       </c>
       <c r="AD10" t="n">
-        <v>753219.267907749</v>
+        <v>856117.8695531278</v>
       </c>
       <c r="AE10" t="n">
-        <v>1030587.83204025</v>
+        <v>1171378.238377374</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.357547914387145e-06</v>
+        <v>1.964062999016334e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.56944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>932229.9757894342</v>
+        <v>1059583.54334632</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>735.2285325189515</v>
+        <v>829.545228464552</v>
       </c>
       <c r="AB11" t="n">
-        <v>1005.972114186068</v>
+        <v>1135.020378537797</v>
       </c>
       <c r="AC11" t="n">
-        <v>909.9635474988781</v>
+        <v>1026.695626621256</v>
       </c>
       <c r="AD11" t="n">
-        <v>735228.5325189515</v>
+        <v>829545.228464552</v>
       </c>
       <c r="AE11" t="n">
-        <v>1005972.114186067</v>
+        <v>1135020.378537797</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367288548307253e-06</v>
+        <v>1.978155480369439e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.40740740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>909963.5474988781</v>
+        <v>1026695.626621256</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>722.9943712711322</v>
+        <v>817.3110672167327</v>
       </c>
       <c r="AB12" t="n">
-        <v>989.2327950336993</v>
+        <v>1118.281059385429</v>
       </c>
       <c r="AC12" t="n">
-        <v>894.8218054726301</v>
+        <v>1011.553884595007</v>
       </c>
       <c r="AD12" t="n">
-        <v>722994.3712711321</v>
+        <v>817311.0672167327</v>
       </c>
       <c r="AE12" t="n">
-        <v>989232.7950336993</v>
+        <v>1118281.059385429</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371100100710773e-06</v>
+        <v>1.983669929594566e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH12" t="n">
-        <v>894821.8054726301</v>
+        <v>1011553.884595007</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>712.9570875725125</v>
+        <v>807.273783518113</v>
       </c>
       <c r="AB13" t="n">
-        <v>975.4993406635432</v>
+        <v>1104.547605015273</v>
       </c>
       <c r="AC13" t="n">
-        <v>882.3990527125376</v>
+        <v>999.1311318349148</v>
       </c>
       <c r="AD13" t="n">
-        <v>712957.0875725124</v>
+        <v>807273.783518113</v>
       </c>
       <c r="AE13" t="n">
-        <v>975499.3406635432</v>
+        <v>1104547.605015273</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37687036754388e-06</v>
+        <v>1.992018193004829e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.25115740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>882399.0527125376</v>
+        <v>999131.1318349148</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>715.4330703738825</v>
+        <v>809.749766319483</v>
       </c>
       <c r="AB14" t="n">
-        <v>978.8870895650296</v>
+        <v>1107.935353916759</v>
       </c>
       <c r="AC14" t="n">
-        <v>885.4634796136013</v>
+        <v>1002.195558735979</v>
       </c>
       <c r="AD14" t="n">
-        <v>715433.0703738825</v>
+        <v>809749.7663194831</v>
       </c>
       <c r="AE14" t="n">
-        <v>978887.0895650296</v>
+        <v>1107935.353916759</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376764491088226e-06</v>
+        <v>1.991865013859686e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.25115740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>885463.4796136013</v>
+        <v>1002195.558735979</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.807711610936</v>
+        <v>1154.084726286955</v>
       </c>
       <c r="AB2" t="n">
-        <v>1402.187122351464</v>
+        <v>1579.069637130562</v>
       </c>
       <c r="AC2" t="n">
-        <v>1268.364351376226</v>
+        <v>1428.365447200976</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024807.711610936</v>
+        <v>1154084.726286955</v>
       </c>
       <c r="AE2" t="n">
-        <v>1402187.122351464</v>
+        <v>1579069.637130562</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.089238379558427e-06</v>
+        <v>1.6356925155991e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.42824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1268364.351376226</v>
+        <v>1428365.447200976</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.486574379161</v>
+        <v>848.6467535561757</v>
       </c>
       <c r="AB3" t="n">
-        <v>1017.271131378301</v>
+        <v>1161.155927867969</v>
       </c>
       <c r="AC3" t="n">
-        <v>920.184202348555</v>
+        <v>1050.336835804829</v>
       </c>
       <c r="AD3" t="n">
-        <v>743486.574379161</v>
+        <v>848646.7535561756</v>
       </c>
       <c r="AE3" t="n">
-        <v>1017271.131378301</v>
+        <v>1161155.927867969</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32794417723441e-06</v>
+        <v>1.994153339250031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.95949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>920184.202348555</v>
+        <v>1050336.835804829</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.3601585315835</v>
+        <v>764.3392771293786</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.1116107552061</v>
+        <v>1045.802719237466</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.9655201849232</v>
+        <v>945.9927755067768</v>
       </c>
       <c r="AD4" t="n">
-        <v>667360.1585315835</v>
+        <v>764339.2771293786</v>
       </c>
       <c r="AE4" t="n">
-        <v>913111.6107552061</v>
+        <v>1045802.719237466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413793503222006e-06</v>
+        <v>2.123071951210862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.44328703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>825965.5201849232</v>
+        <v>945992.7755067768</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>615.1814592813984</v>
+        <v>712.2458292252139</v>
       </c>
       <c r="AB5" t="n">
-        <v>841.7184124793562</v>
+        <v>974.5261656142656</v>
       </c>
       <c r="AC5" t="n">
-        <v>761.3859885515375</v>
+        <v>881.5187561241032</v>
       </c>
       <c r="AD5" t="n">
-        <v>615181.4592813983</v>
+        <v>712245.829225214</v>
       </c>
       <c r="AE5" t="n">
-        <v>841718.4124793562</v>
+        <v>974526.1656142656</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463447516318233e-06</v>
+        <v>2.19763661870255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.65046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>761385.9885515375</v>
+        <v>881518.7561241032</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>589.015935615913</v>
+        <v>677.9845858350808</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.9175886588046</v>
+        <v>927.6484209085032</v>
       </c>
       <c r="AC6" t="n">
-        <v>729.0019451096471</v>
+        <v>839.114957579731</v>
       </c>
       <c r="AD6" t="n">
-        <v>589015.935615913</v>
+        <v>677984.5858350808</v>
       </c>
       <c r="AE6" t="n">
-        <v>805917.5886588045</v>
+        <v>927648.4209085032</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482976949381456e-06</v>
+        <v>2.226963667854414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>729001.9451096471</v>
+        <v>839114.957579731</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>589.503236684283</v>
+        <v>678.4718869034506</v>
       </c>
       <c r="AB7" t="n">
-        <v>806.584335478754</v>
+        <v>928.3151677284527</v>
       </c>
       <c r="AC7" t="n">
-        <v>729.6050585488858</v>
+        <v>839.7180710189695</v>
       </c>
       <c r="AD7" t="n">
-        <v>589503.236684283</v>
+        <v>678471.8869034506</v>
       </c>
       <c r="AE7" t="n">
-        <v>806584.335478754</v>
+        <v>928315.1677284527</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482518780863844e-06</v>
+        <v>2.226275643240881e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.35532407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>729605.0585488859</v>
+        <v>839718.0710189694</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.1565010065632</v>
+        <v>897.1711888956894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.022251571104</v>
+        <v>1227.549201046492</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.2327594913809</v>
+        <v>1110.393628174739</v>
       </c>
       <c r="AD2" t="n">
-        <v>787156.5010065632</v>
+        <v>897171.1888956894</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077022.251571104</v>
+        <v>1227549.201046492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248392108158024e-06</v>
+        <v>1.914717337216974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>974232.7594913809</v>
+        <v>1110393.628174739</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.6606259111745</v>
+        <v>707.646440099077</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.6915882326919</v>
+        <v>968.2330785011575</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.6024261277119</v>
+        <v>875.8262724126669</v>
       </c>
       <c r="AD3" t="n">
-        <v>605660.6259111746</v>
+        <v>707646.4400990771</v>
       </c>
       <c r="AE3" t="n">
-        <v>828691.5882326919</v>
+        <v>968233.0785011575</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.452957554916786e-06</v>
+        <v>2.228468926116764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.76157407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>749602.4261277119</v>
+        <v>875826.2724126668</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.0113095138249</v>
+        <v>635.2242725642185</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.2355414112918</v>
+        <v>869.1418738394273</v>
       </c>
       <c r="AC4" t="n">
-        <v>669.5885002661048</v>
+        <v>786.1921932484729</v>
       </c>
       <c r="AD4" t="n">
-        <v>541011.3095138249</v>
+        <v>635224.2725642185</v>
       </c>
       <c r="AE4" t="n">
-        <v>740235.5414112918</v>
+        <v>869141.8738394273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526336236606281e-06</v>
+        <v>2.341013240595254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.62152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>669588.5002661048</v>
+        <v>786192.1932484729</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.3212215672105</v>
+        <v>632.5341846176042</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.5548444044296</v>
+        <v>865.461176832565</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.2590838156868</v>
+        <v>782.8627767980548</v>
       </c>
       <c r="AD5" t="n">
-        <v>538321.2215672105</v>
+        <v>632534.1846176041</v>
       </c>
       <c r="AE5" t="n">
-        <v>736554.8444044295</v>
+        <v>865461.176832565</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.527946988155563e-06</v>
+        <v>2.343483725547221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.59259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>666259.0838156869</v>
+        <v>782862.7767980548</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.5103162575044</v>
+        <v>743.6952758096407</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.9014955568242</v>
+        <v>1017.55668588274</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.7838791388061</v>
+        <v>920.4425039318691</v>
       </c>
       <c r="AD2" t="n">
-        <v>636510.3162575044</v>
+        <v>743695.2758096408</v>
       </c>
       <c r="AE2" t="n">
-        <v>870901.4955568243</v>
+        <v>1017556.68588274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.153463766870484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.91435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>787783.8791388061</v>
+        <v>920442.5039318691</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.4683769867507</v>
+        <v>594.402157213276</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.4994007335735</v>
+        <v>813.2872546716427</v>
       </c>
       <c r="AC3" t="n">
-        <v>621.8854228390297</v>
+        <v>735.6682605416114</v>
       </c>
       <c r="AD3" t="n">
-        <v>502468.3769867508</v>
+        <v>594402.157213276</v>
       </c>
       <c r="AE3" t="n">
-        <v>687499.4007335735</v>
+        <v>813287.2546716427</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556461066990731e-06</v>
+        <v>2.431939715409505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.94560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>621885.4228390297</v>
+        <v>735668.2605416114</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.7011384103501</v>
+        <v>590.6349186368752</v>
       </c>
       <c r="AB4" t="n">
-        <v>682.3448987145058</v>
+        <v>808.132752652575</v>
       </c>
       <c r="AC4" t="n">
-        <v>617.2228592582728</v>
+        <v>731.0056969608545</v>
       </c>
       <c r="AD4" t="n">
-        <v>498701.1384103501</v>
+        <v>590634.9186368752</v>
       </c>
       <c r="AE4" t="n">
-        <v>682344.8987145058</v>
+        <v>808132.752652575</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.562262079650702e-06</v>
+        <v>2.441003683263614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>617222.8592582728</v>
+        <v>731005.6969608545</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>438.8916014962933</v>
+        <v>526.307424060249</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.5108516981485</v>
+        <v>720.117036644065</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.1989388343502</v>
+        <v>651.3900773573636</v>
       </c>
       <c r="AD2" t="n">
-        <v>438891.6014962933</v>
+        <v>526307.424060249</v>
       </c>
       <c r="AE2" t="n">
-        <v>600510.8516981485</v>
+        <v>720117.0366440651</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579879390573952e-06</v>
+        <v>2.574691735988031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>543198.9388343502</v>
+        <v>651390.0773573635</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1289.990663294698</v>
+        <v>1430.872396960866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1765.022135891338</v>
+        <v>1957.782739156828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1596.570900465995</v>
+        <v>1770.934702297032</v>
       </c>
       <c r="AD2" t="n">
-        <v>1289990.663294698</v>
+        <v>1430872.396960866</v>
       </c>
       <c r="AE2" t="n">
-        <v>1765022.135891338</v>
+        <v>1957782.739156828</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.574698122658615e-07</v>
+        <v>1.41454752178688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.47800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1596570.900465995</v>
+        <v>1770934.702297032</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.2636081815011</v>
+        <v>997.0419001453561</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.7297002555</v>
+        <v>1364.196714163108</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.606725353974</v>
+        <v>1233.999694425494</v>
       </c>
       <c r="AD3" t="n">
-        <v>889263.6081815012</v>
+        <v>997041.9001453561</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216729.7002555</v>
+        <v>1364196.714163108</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.221251776165777e-06</v>
+        <v>1.804253931896752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100606.725353974</v>
+        <v>1233999.694425494</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>783.7940225758524</v>
+        <v>883.2751189004864</v>
       </c>
       <c r="AB4" t="n">
-        <v>1072.421560240126</v>
+        <v>1208.535985027714</v>
       </c>
       <c r="AC4" t="n">
-        <v>970.0711516839211</v>
+        <v>1093.195006807577</v>
       </c>
       <c r="AD4" t="n">
-        <v>783794.0225758525</v>
+        <v>883275.1189004864</v>
       </c>
       <c r="AE4" t="n">
-        <v>1072421.560240126</v>
+        <v>1208535.985027714</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319075998813246e-06</v>
+        <v>1.948777560677523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.29976851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>970071.1516839211</v>
+        <v>1093195.006807577</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.8271488851578</v>
+        <v>828.2229043552203</v>
       </c>
       <c r="AB5" t="n">
-        <v>997.2134586891966</v>
+        <v>1133.211116354587</v>
       </c>
       <c r="AC5" t="n">
-        <v>902.0408057897786</v>
+        <v>1025.059037881495</v>
       </c>
       <c r="AD5" t="n">
-        <v>728827.1488851579</v>
+        <v>828222.9043552203</v>
       </c>
       <c r="AE5" t="n">
-        <v>997213.4586891966</v>
+        <v>1133211.116354587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.370536192946598e-06</v>
+        <v>2.024803863699798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.39120370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>902040.8057897786</v>
+        <v>1025059.037881495</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>691.0922506335236</v>
+        <v>790.5732574496063</v>
       </c>
       <c r="AB6" t="n">
-        <v>945.5829061550912</v>
+        <v>1081.697208473131</v>
       </c>
       <c r="AC6" t="n">
-        <v>855.3378007255927</v>
+        <v>978.4615450680218</v>
       </c>
       <c r="AD6" t="n">
-        <v>691092.2506335236</v>
+        <v>790573.2574496063</v>
       </c>
       <c r="AE6" t="n">
-        <v>945582.9061550912</v>
+        <v>1081697.208473131</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397623421074918e-06</v>
+        <v>2.064822014590962e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.93402777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>855337.8007255928</v>
+        <v>978461.5450680217</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>662.6104691589063</v>
+        <v>762.0914759749888</v>
       </c>
       <c r="AB7" t="n">
-        <v>906.6128762140025</v>
+        <v>1042.727178532042</v>
       </c>
       <c r="AC7" t="n">
-        <v>820.0870157473009</v>
+        <v>943.21076008973</v>
       </c>
       <c r="AD7" t="n">
-        <v>662610.4691589063</v>
+        <v>762091.4759749889</v>
       </c>
       <c r="AE7" t="n">
-        <v>906612.8762140025</v>
+        <v>1042727.178532042</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421608635348052e-06</v>
+        <v>2.100257309756349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>820087.0157473009</v>
+        <v>943210.76008973</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>638.6719340197724</v>
+        <v>729.8558347051849</v>
       </c>
       <c r="AB8" t="n">
-        <v>873.8591163430046</v>
+        <v>998.6209520105726</v>
       </c>
       <c r="AC8" t="n">
-        <v>790.4592287482002</v>
+        <v>903.3139699239919</v>
       </c>
       <c r="AD8" t="n">
-        <v>638671.9340197723</v>
+        <v>729855.8347051849</v>
       </c>
       <c r="AE8" t="n">
-        <v>873859.1163430046</v>
+        <v>998620.9520105727</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.12595403650446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>790459.2287482002</v>
+        <v>903313.9699239918</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>635.5658660500749</v>
+        <v>726.7497667354875</v>
       </c>
       <c r="AB9" t="n">
-        <v>869.6092571168169</v>
+        <v>994.3710927843852</v>
       </c>
       <c r="AC9" t="n">
-        <v>786.614970121845</v>
+        <v>899.4697112976366</v>
       </c>
       <c r="AD9" t="n">
-        <v>635565.8660500749</v>
+        <v>726749.7667354875</v>
       </c>
       <c r="AE9" t="n">
-        <v>869609.2571168169</v>
+        <v>994371.0927843852</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439832966747269e-06</v>
+        <v>2.127181587145293e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.26273148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>786614.970121845</v>
+        <v>899469.7112976366</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1721.651450014593</v>
+        <v>1883.616872641998</v>
       </c>
       <c r="AB2" t="n">
-        <v>2355.639467811383</v>
+        <v>2577.247704460347</v>
       </c>
       <c r="AC2" t="n">
-        <v>2130.820543164221</v>
+        <v>2331.278800736523</v>
       </c>
       <c r="AD2" t="n">
-        <v>1721651.450014593</v>
+        <v>1883616.872641998</v>
       </c>
       <c r="AE2" t="n">
-        <v>2355639.467811383</v>
+        <v>2577247.704460348</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090588074361988e-07</v>
+        <v>1.174890131980447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.17708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2130820.543164222</v>
+        <v>2331278.800736523</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1085.855607559672</v>
+        <v>1205.176115983544</v>
       </c>
       <c r="AB3" t="n">
-        <v>1485.715546831614</v>
+        <v>1648.97513050647</v>
       </c>
       <c r="AC3" t="n">
-        <v>1343.920940256871</v>
+        <v>1491.599258402063</v>
       </c>
       <c r="AD3" t="n">
-        <v>1085855.607559672</v>
+        <v>1205176.115983544</v>
       </c>
       <c r="AE3" t="n">
-        <v>1485715.546831614</v>
+        <v>1648975.13050647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.100025328471675e-06</v>
+        <v>1.597422698413476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.07870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1343920.940256871</v>
+        <v>1491599.258402063</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>933.5239590404916</v>
+        <v>1044.230143769086</v>
       </c>
       <c r="AB4" t="n">
-        <v>1277.288664929641</v>
+        <v>1428.761750887477</v>
       </c>
       <c r="AC4" t="n">
-        <v>1155.386027434656</v>
+        <v>1292.402734662488</v>
       </c>
       <c r="AD4" t="n">
-        <v>933523.9590404916</v>
+        <v>1044230.143769086</v>
       </c>
       <c r="AE4" t="n">
-        <v>1277288.664929641</v>
+        <v>1428761.750887477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212066922244096e-06</v>
+        <v>1.760126029351456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.48611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1155386.027434656</v>
+        <v>1292402.734662488</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>864.9482232900516</v>
+        <v>967.2107660325107</v>
       </c>
       <c r="AB5" t="n">
-        <v>1183.460317927946</v>
+        <v>1323.380440413158</v>
       </c>
       <c r="AC5" t="n">
-        <v>1070.512526181891</v>
+        <v>1197.07886855624</v>
       </c>
       <c r="AD5" t="n">
-        <v>864948.2232900516</v>
+        <v>967210.7660325107</v>
       </c>
       <c r="AE5" t="n">
-        <v>1183460.317927946</v>
+        <v>1323380.440413158</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271744150370616e-06</v>
+        <v>1.846787450975401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.28819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1070512.52618189</v>
+        <v>1197078.868556239</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>819.1429830320142</v>
+        <v>921.490777120494</v>
       </c>
       <c r="AB6" t="n">
-        <v>1120.787567422319</v>
+        <v>1260.824334560181</v>
       </c>
       <c r="AC6" t="n">
-        <v>1013.821175022763</v>
+        <v>1140.493029647824</v>
       </c>
       <c r="AD6" t="n">
-        <v>819142.9830320142</v>
+        <v>921490.7771204941</v>
       </c>
       <c r="AE6" t="n">
-        <v>1120787.567422319</v>
+        <v>1260824.334560181</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308415219890223e-06</v>
+        <v>1.900040041901744e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1013821.175022763</v>
+        <v>1140493.029647824</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>797.8489648978673</v>
+        <v>900.026166785755</v>
       </c>
       <c r="AB7" t="n">
-        <v>1091.652152385401</v>
+        <v>1231.455507748415</v>
       </c>
       <c r="AC7" t="n">
-        <v>987.4664031051559</v>
+        <v>1113.927122447566</v>
       </c>
       <c r="AD7" t="n">
-        <v>797848.9648978673</v>
+        <v>900026.166785755</v>
       </c>
       <c r="AE7" t="n">
-        <v>1091652.152385401</v>
+        <v>1231455.507748415</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326777443929152e-06</v>
+        <v>1.926705094709111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>987466.4031051559</v>
+        <v>1113927.122447566</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>760.8508790915744</v>
+        <v>863.1133323254824</v>
       </c>
       <c r="AB8" t="n">
-        <v>1041.029739144883</v>
+        <v>1180.949739160547</v>
       </c>
       <c r="AC8" t="n">
-        <v>941.6753219353096</v>
+        <v>1068.241553528432</v>
       </c>
       <c r="AD8" t="n">
-        <v>760850.8790915743</v>
+        <v>863113.3323254824</v>
       </c>
       <c r="AE8" t="n">
-        <v>1041029.739144883</v>
+        <v>1180949.739160547</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351865366307922e-06</v>
+        <v>1.963136998254062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.85300925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>941675.3219353097</v>
+        <v>1068241.553528432</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>742.0980854946247</v>
+        <v>844.3605387285329</v>
       </c>
       <c r="AB9" t="n">
-        <v>1015.371339630671</v>
+        <v>1155.291339646336</v>
       </c>
       <c r="AC9" t="n">
-        <v>918.4657240589451</v>
+        <v>1045.031955652067</v>
       </c>
       <c r="AD9" t="n">
-        <v>742098.0854946247</v>
+        <v>844360.5387285328</v>
       </c>
       <c r="AE9" t="n">
-        <v>1015371.339630671</v>
+        <v>1155291.339646336</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366224198477898e-06</v>
+        <v>1.983988449431916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.60995370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>918465.7240589451</v>
+        <v>1045031.955652067</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>722.5779299571033</v>
+        <v>816.3114898588556</v>
       </c>
       <c r="AB10" t="n">
-        <v>988.6630016557506</v>
+        <v>1116.913393546141</v>
       </c>
       <c r="AC10" t="n">
-        <v>894.3063923749628</v>
+        <v>1010.31674686389</v>
       </c>
       <c r="AD10" t="n">
-        <v>722577.9299571032</v>
+        <v>816311.4898588556</v>
       </c>
       <c r="AE10" t="n">
-        <v>988663.0016557506</v>
+        <v>1116913.393546141</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377166802919702e-06</v>
+        <v>1.999878960552586e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>894306.3923749628</v>
+        <v>1010316.74686389</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>703.4105944376608</v>
+        <v>797.1441543394133</v>
       </c>
       <c r="AB11" t="n">
-        <v>962.4374075948862</v>
+        <v>1090.687799485276</v>
       </c>
       <c r="AC11" t="n">
-        <v>870.5837322034148</v>
+        <v>986.5940866923421</v>
       </c>
       <c r="AD11" t="n">
-        <v>703410.5944376609</v>
+        <v>797144.1543394133</v>
       </c>
       <c r="AE11" t="n">
-        <v>962437.4075948861</v>
+        <v>1090687.799485276</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389123599968307e-06</v>
+        <v>2.017242250752732e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>870583.7322034148</v>
+        <v>986594.0866923421</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>697.5695335337363</v>
+        <v>791.3030934354888</v>
       </c>
       <c r="AB12" t="n">
-        <v>954.445410376716</v>
+        <v>1082.695802267107</v>
       </c>
       <c r="AC12" t="n">
-        <v>863.3544799829084</v>
+        <v>979.3648344718356</v>
       </c>
       <c r="AD12" t="n">
-        <v>697569.5335337362</v>
+        <v>791303.0934354888</v>
       </c>
       <c r="AE12" t="n">
-        <v>954445.4103767161</v>
+        <v>1082695.802267107</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38917697852656e-06</v>
+        <v>2.017319765441126e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>863354.4799829083</v>
+        <v>979364.8344718356</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>699.3544168045025</v>
+        <v>793.0879767062549</v>
       </c>
       <c r="AB13" t="n">
-        <v>956.8875664112711</v>
+        <v>1085.137958301661</v>
       </c>
       <c r="AC13" t="n">
-        <v>865.5635600731129</v>
+        <v>981.5739145620402</v>
       </c>
       <c r="AD13" t="n">
-        <v>699354.4168045025</v>
+        <v>793087.976706255</v>
       </c>
       <c r="AE13" t="n">
-        <v>956887.5664112711</v>
+        <v>1085137.958301662</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.388749950060539e-06</v>
+        <v>2.016699647933978e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.24537037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>865563.5600731128</v>
+        <v>981573.9145620401</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.3349579441115</v>
+        <v>511.7835718186237</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.1748803936271</v>
+        <v>700.2448612599343</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.3308216332763</v>
+        <v>633.4144745011206</v>
       </c>
       <c r="AD2" t="n">
-        <v>412334.9579441115</v>
+        <v>511783.5718186237</v>
       </c>
       <c r="AE2" t="n">
-        <v>564174.8803936271</v>
+        <v>700244.8612599343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.533909196250912e-06</v>
+        <v>2.556935241310151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.8738425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>510330.8216332763</v>
+        <v>633414.4745011206</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.1472092214059</v>
+        <v>983.1999830040725</v>
       </c>
       <c r="AB2" t="n">
-        <v>1182.364335140978</v>
+        <v>1345.257592468117</v>
       </c>
       <c r="AC2" t="n">
-        <v>1069.52114245389</v>
+        <v>1216.868095923849</v>
       </c>
       <c r="AD2" t="n">
-        <v>864147.2092214059</v>
+        <v>983199.9830040724</v>
       </c>
       <c r="AE2" t="n">
-        <v>1182364.335140978</v>
+        <v>1345257.592468117</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.191513320922295e-06</v>
+        <v>1.813372012981424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1069521.14245389</v>
+        <v>1216868.095923849</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.4690425966326</v>
+        <v>753.6942829604027</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.9463936846547</v>
+        <v>1031.237768591475</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.961334357596</v>
+        <v>932.8178833084024</v>
       </c>
       <c r="AD3" t="n">
-        <v>658469.0425966326</v>
+        <v>753694.2829604027</v>
       </c>
       <c r="AE3" t="n">
-        <v>900946.3936846547</v>
+        <v>1031237.768591475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407735246832706e-06</v>
+        <v>2.142441593785927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>814961.334357596</v>
+        <v>932817.8833084024</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.5580118808265</v>
+        <v>677.7831627360455</v>
       </c>
       <c r="AB4" t="n">
-        <v>797.0815725009711</v>
+        <v>927.3728249382431</v>
       </c>
       <c r="AC4" t="n">
-        <v>721.0092259324911</v>
+        <v>838.8656641020709</v>
       </c>
       <c r="AD4" t="n">
-        <v>582558.0118808264</v>
+        <v>677783.1627360454</v>
       </c>
       <c r="AE4" t="n">
-        <v>797081.5725009711</v>
+        <v>927372.824938243</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485981952484352e-06</v>
+        <v>2.261525773245087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>721009.225932491</v>
+        <v>838865.664102071</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>554.0204117858557</v>
+        <v>649.0749704404823</v>
       </c>
       <c r="AB5" t="n">
-        <v>758.0351690609709</v>
+        <v>888.0930097233958</v>
       </c>
       <c r="AC5" t="n">
-        <v>685.689356434833</v>
+        <v>803.3346593217617</v>
       </c>
       <c r="AD5" t="n">
-        <v>554020.4117858557</v>
+        <v>649074.9704404823</v>
       </c>
       <c r="AE5" t="n">
-        <v>758035.1690609709</v>
+        <v>888093.0097233958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512848026475939e-06</v>
+        <v>2.302413429152553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.48842592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>685689.356434833</v>
+        <v>803334.6593217617</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>555.2808866652622</v>
+        <v>650.3354453198888</v>
       </c>
       <c r="AB6" t="n">
-        <v>759.7598063992019</v>
+        <v>889.8176470616266</v>
       </c>
       <c r="AC6" t="n">
-        <v>687.2493968060469</v>
+        <v>804.8946996929757</v>
       </c>
       <c r="AD6" t="n">
-        <v>555280.8866652622</v>
+        <v>650335.4453198888</v>
       </c>
       <c r="AE6" t="n">
-        <v>759759.806399202</v>
+        <v>889817.6470616267</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514964391166743e-06</v>
+        <v>2.305634338589465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.45370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>687249.3968060468</v>
+        <v>804894.6996929757</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1108.685863114257</v>
+        <v>1239.174809362164</v>
       </c>
       <c r="AB2" t="n">
-        <v>1516.952909681188</v>
+        <v>1695.49364270359</v>
       </c>
       <c r="AC2" t="n">
-        <v>1372.177053037995</v>
+        <v>1533.678109084232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1108685.863114257</v>
+        <v>1239174.809362164</v>
       </c>
       <c r="AE2" t="n">
-        <v>1516952.909681188</v>
+        <v>1695493.64270359</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.043367250295777e-06</v>
+        <v>1.557654125758219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.39467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1372177.053037995</v>
+        <v>1533678.109084232</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>795.4728489456909</v>
+        <v>901.4631317345041</v>
       </c>
       <c r="AB3" t="n">
-        <v>1088.401045712795</v>
+        <v>1233.421626585713</v>
       </c>
       <c r="AC3" t="n">
-        <v>984.5255774904272</v>
+        <v>1115.705597662497</v>
       </c>
       <c r="AD3" t="n">
-        <v>795472.8489456909</v>
+        <v>901463.1317345041</v>
       </c>
       <c r="AE3" t="n">
-        <v>1088401.045712795</v>
+        <v>1233421.626585713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289577922900021e-06</v>
+        <v>1.925224671871284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.39930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>984525.5774904272</v>
+        <v>1115705.597662498</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>704.2407017249519</v>
+        <v>802.2353555613263</v>
       </c>
       <c r="AB4" t="n">
-        <v>963.5731970071066</v>
+        <v>1097.653805605044</v>
       </c>
       <c r="AC4" t="n">
-        <v>871.6111234682235</v>
+        <v>992.8952669648894</v>
       </c>
       <c r="AD4" t="n">
-        <v>704240.701724952</v>
+        <v>802235.3555613263</v>
       </c>
       <c r="AE4" t="n">
-        <v>963573.1970071066</v>
+        <v>1097653.805605044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.379402368284604e-06</v>
+        <v>2.059324546970465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.74421296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>871611.1234682235</v>
+        <v>992895.2669648894</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.379115938441</v>
+        <v>751.2884289202436</v>
       </c>
       <c r="AB5" t="n">
-        <v>893.982131479201</v>
+        <v>1027.94597295494</v>
       </c>
       <c r="AC5" t="n">
-        <v>808.6617315626271</v>
+        <v>929.8402520273543</v>
       </c>
       <c r="AD5" t="n">
-        <v>653379.115938441</v>
+        <v>751288.4289202436</v>
       </c>
       <c r="AE5" t="n">
-        <v>893982.131479201</v>
+        <v>1027945.97295494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.427682300176884e-06</v>
+        <v>2.131402173599073e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.94560185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>808661.7315626271</v>
+        <v>929840.2520273543</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>622.5429602164485</v>
+        <v>720.281680997659</v>
       </c>
       <c r="AB6" t="n">
-        <v>851.7907428251923</v>
+        <v>985.5211725260843</v>
       </c>
       <c r="AC6" t="n">
-        <v>770.4970298257713</v>
+        <v>891.4644150078474</v>
       </c>
       <c r="AD6" t="n">
-        <v>622542.9602164485</v>
+        <v>720281.680997659</v>
       </c>
       <c r="AE6" t="n">
-        <v>851790.7428251923</v>
+        <v>985521.1725260844</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455982377487717e-06</v>
+        <v>2.173651661658046e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.49421296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>770497.0298257712</v>
+        <v>891464.4150078474</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>603.1591796301939</v>
+        <v>692.9023609675163</v>
       </c>
       <c r="AB7" t="n">
-        <v>825.2689990750326</v>
+        <v>948.0595789704921</v>
       </c>
       <c r="AC7" t="n">
-        <v>746.5064840756257</v>
+        <v>857.578103363524</v>
       </c>
       <c r="AD7" t="n">
-        <v>603159.1796301939</v>
+        <v>692902.3609675163</v>
       </c>
       <c r="AE7" t="n">
-        <v>825268.9990750327</v>
+        <v>948059.5789704921</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468264611040618e-06</v>
+        <v>2.19198793947564e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.30902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>746506.4840756258</v>
+        <v>857578.103363524</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>605.1559272675509</v>
+        <v>694.8991086048734</v>
       </c>
       <c r="AB8" t="n">
-        <v>828.0010372827534</v>
+        <v>950.7916171782127</v>
       </c>
       <c r="AC8" t="n">
-        <v>748.9777803912411</v>
+        <v>860.0493996791392</v>
       </c>
       <c r="AD8" t="n">
-        <v>605155.9272675508</v>
+        <v>694899.1086048734</v>
       </c>
       <c r="AE8" t="n">
-        <v>828001.0372827534</v>
+        <v>950791.6171782127</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467811809803645e-06</v>
+        <v>2.191311947666697e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>748977.7803912412</v>
+        <v>860049.3996791393</v>
       </c>
     </row>
   </sheetData>
